--- a/data/trans_orig/P0902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6463BC-4957-4B42-98C0-80A4FDB51057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD41032A-BF9D-48C3-A772-50950C0EC4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC181517-6FF5-479A-92B4-B677C646B1F1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F707AF13-F7DD-40DE-AEB9-A4B7F1993221}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,1783 +77,1783 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>13,47%</t>
   </si>
   <si>
-    <t>9,67%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>76,85%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>82,62%</t>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>14,14%</t>
+    <t>14,06%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>15,16%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>85,86%</t>
+    <t>85,94%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>84,84%</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5119368-4B2D-4BC9-9FC6-12B0BEC70E94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D19EED-F9D7-4A2F-A26B-32A2469E5F81}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3355,7 +3355,7 @@
         <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3370,13 @@
         <v>557949</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>535</v>
@@ -3385,13 +3385,13 @@
         <v>552839</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1075</v>
@@ -3400,13 +3400,13 @@
         <v>1110789</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3462,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3474,13 +3474,13 @@
         <v>75565</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>117</v>
@@ -3489,13 +3489,13 @@
         <v>128287</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>197</v>
@@ -3504,13 +3504,13 @@
         <v>203851</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3525,13 @@
         <v>668230</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>628</v>
@@ -3540,13 +3540,13 @@
         <v>655224</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1284</v>
@@ -3555,13 +3555,13 @@
         <v>1323455</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3629,13 @@
         <v>267438</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>474</v>
@@ -3644,13 +3644,13 @@
         <v>493667</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>745</v>
@@ -3659,13 +3659,13 @@
         <v>761106</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3680,13 @@
         <v>3009106</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2823</v>
@@ -3695,28 +3695,28 @@
         <v>2885531</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5766</v>
       </c>
       <c r="N29" s="7">
-        <v>5894634</v>
+        <v>5894635</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3758,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85805ECD-1234-44B3-9EC9-AA50E7705A1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B611E1-BBD0-4601-AC19-0AE26E5BD10B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3813,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,39 +3918,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,39 +3963,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4057,13 @@
         <v>53692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -4072,13 +4072,13 @@
         <v>96265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -4087,13 +4087,13 @@
         <v>149957</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4108,13 @@
         <v>451835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>393</v>
@@ -4123,13 +4123,13 @@
         <v>427500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>822</v>
@@ -4138,13 +4138,13 @@
         <v>879335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4212,13 @@
         <v>37764</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4227,13 +4227,13 @@
         <v>58563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4242,13 +4242,13 @@
         <v>96327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4263,13 @@
         <v>286282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>263</v>
@@ -4278,13 +4278,13 @@
         <v>282457</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>548</v>
@@ -4293,13 +4293,13 @@
         <v>568739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4367,13 @@
         <v>95694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -4382,13 +4382,13 @@
         <v>203665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>284</v>
@@ -4397,13 +4397,13 @@
         <v>299359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4418,13 @@
         <v>573026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>434</v>
@@ -4433,13 +4433,13 @@
         <v>472531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>969</v>
@@ -4448,13 +4448,13 @@
         <v>1045557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4522,13 @@
         <v>24565</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4537,13 +4537,13 @@
         <v>58982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4552,13 +4552,13 @@
         <v>83547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4573,13 @@
         <v>188053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -4588,13 +4588,13 @@
         <v>160609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -4603,13 +4603,13 @@
         <v>348662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4677,13 @@
         <v>35123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -4692,13 +4692,13 @@
         <v>46720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -4707,13 +4707,13 @@
         <v>81843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4728,13 @@
         <v>238858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7">
         <v>224</v>
@@ -4743,13 +4743,13 @@
         <v>233311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -4758,13 +4758,13 @@
         <v>472169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4832,13 @@
         <v>47961</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -4847,13 +4847,13 @@
         <v>104693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -4862,13 +4862,13 @@
         <v>152654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4883,13 @@
         <v>613906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>540</v>
@@ -4898,13 +4898,13 @@
         <v>587247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1111</v>
@@ -4913,13 +4913,13 @@
         <v>1201154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,7 +4975,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4987,13 +4987,13 @@
         <v>81722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -5002,13 +5002,13 @@
         <v>141275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
@@ -5017,13 +5017,13 @@
         <v>222996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5038,13 @@
         <v>697376</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -5053,13 +5053,13 @@
         <v>680545</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -5068,13 +5068,13 @@
         <v>1377922</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5148,7 @@
         <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>659</v>
@@ -5157,13 +5157,13 @@
         <v>710163</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>1002</v>
@@ -5172,13 +5172,13 @@
         <v>1086684</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,28 +5193,28 @@
         <v>3049337</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>2636</v>
       </c>
       <c r="I29" s="7">
-        <v>2844201</v>
+        <v>2844200</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>5501</v>
@@ -5223,13 +5223,13 @@
         <v>5893538</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,7 +5256,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3554364</v>
+        <v>3554363</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +5309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7677540F-0D13-4062-BA6C-C00221AA9B9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ECF13F-745D-42E7-8E78-3A6498B583E5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,7 +5326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5433,13 @@
         <v>30947</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5448,13 +5448,13 @@
         <v>71582</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
@@ -5463,13 +5463,13 @@
         <v>102529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5484,13 @@
         <v>262814</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -5499,13 +5499,13 @@
         <v>217121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -5514,13 +5514,13 @@
         <v>479935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5588,13 @@
         <v>42060</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5603,13 +5603,13 @@
         <v>78214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -5618,13 +5618,13 @@
         <v>120273</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5639,13 @@
         <v>460515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -5654,13 +5654,13 @@
         <v>444870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>852</v>
@@ -5669,13 +5669,13 @@
         <v>905386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5743,13 @@
         <v>23660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -5758,13 +5758,13 @@
         <v>36612</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5773,13 +5773,13 @@
         <v>60271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5794,13 @@
         <v>294905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -5809,13 +5809,13 @@
         <v>299697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -5824,13 +5824,13 @@
         <v>594603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5898,13 @@
         <v>61678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -5913,13 +5913,13 @@
         <v>116480</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5928,13 +5928,13 @@
         <v>178158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5949,13 @@
         <v>308286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>256</v>
@@ -5964,13 +5964,13 @@
         <v>270803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>550</v>
@@ -5979,13 +5979,13 @@
         <v>579089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6053,13 @@
         <v>16549</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6068,13 +6068,13 @@
         <v>30213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6083,13 +6083,13 @@
         <v>46762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6104,13 @@
         <v>194672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -6119,13 +6119,13 @@
         <v>188374</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -6134,13 +6134,13 @@
         <v>383046</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6208,13 @@
         <v>36532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -6223,13 +6223,13 @@
         <v>57455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -6238,13 +6238,13 @@
         <v>93988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6259,13 @@
         <v>226591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
@@ -6274,10 +6274,10 @@
         <v>215660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>120</v>
@@ -6289,13 +6289,13 @@
         <v>442250</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6363,13 @@
         <v>56169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -6378,13 +6378,13 @@
         <v>131397</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -6393,13 +6393,13 @@
         <v>187565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6414,13 @@
         <v>600389</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>534</v>
@@ -6429,13 +6429,13 @@
         <v>559897</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>1063</v>
@@ -6444,13 +6444,13 @@
         <v>1160287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6518,13 +6518,13 @@
         <v>46258</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6533,13 +6533,13 @@
         <v>105603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6548,13 +6548,13 @@
         <v>151861</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6569,13 @@
         <v>732325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -6584,13 +6584,13 @@
         <v>720564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>1374</v>
@@ -6599,13 +6599,13 @@
         <v>1452889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6673,13 @@
         <v>313851</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>540</v>
@@ -6688,13 +6688,13 @@
         <v>627556</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>847</v>
@@ -6703,13 +6703,13 @@
         <v>941407</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6724,13 @@
         <v>3080499</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>2798</v>
@@ -6739,13 +6739,13 @@
         <v>2916986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>5722</v>
@@ -6754,13 +6754,13 @@
         <v>5997485</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6816,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6840,7 +6840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AE4A63-62F5-4621-A1B3-E5DA32E78A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B91B03E-D363-4738-AFCF-D655E2205754}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,7 +6857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6964,13 +6964,13 @@
         <v>21360</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -6982,10 +6982,10 @@
         <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -6994,13 +6994,13 @@
         <v>52562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>467</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7015,13 @@
         <v>238938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -7033,10 +7033,10 @@
         <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M5" s="7">
         <v>774</v>
@@ -7045,13 +7045,13 @@
         <v>479138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7119,13 @@
         <v>92913</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
@@ -7134,13 +7134,13 @@
         <v>136344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M7" s="7">
         <v>280</v>
@@ -7149,13 +7149,13 @@
         <v>229258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7170,13 @@
         <v>426384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
@@ -7185,13 +7185,13 @@
         <v>418222</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -7200,13 +7200,13 @@
         <v>844606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7274,13 @@
         <v>44054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>494</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -7289,13 +7289,13 @@
         <v>66033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -7304,13 +7304,13 @@
         <v>110087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>498</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7325,13 @@
         <v>278186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -7340,13 +7340,13 @@
         <v>306580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>508</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>505</v>
       </c>
       <c r="M11" s="7">
         <v>728</v>
@@ -7355,13 +7355,13 @@
         <v>584767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7429,13 @@
         <v>58998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -7444,13 +7444,13 @@
         <v>103768</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -7459,10 +7459,10 @@
         <v>162766</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>517</v>
@@ -7480,13 +7480,13 @@
         <v>262643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>518</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H14" s="7">
         <v>420</v>
@@ -7495,28 +7495,28 @@
         <v>324788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
       </c>
       <c r="N14" s="7">
-        <v>587432</v>
+        <v>587431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7558,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750198</v>
+        <v>750197</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7584,13 +7584,13 @@
         <v>13468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -7599,13 +7599,13 @@
         <v>27768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -7614,13 +7614,13 @@
         <v>41236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7635,13 @@
         <v>182702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>537</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -7650,13 +7650,13 @@
         <v>203043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M17" s="7">
         <v>680</v>
@@ -7665,13 +7665,13 @@
         <v>385746</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7739,13 @@
         <v>31382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>541</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>97</v>
@@ -7754,13 +7754,13 @@
         <v>42650</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -7769,13 +7769,13 @@
         <v>74032</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7790,13 @@
         <v>245841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -7805,13 +7805,13 @@
         <v>232972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M20" s="7">
         <v>679</v>
@@ -7820,13 +7820,13 @@
         <v>478813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7894,13 @@
         <v>80834</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>240</v>
@@ -7909,13 +7909,13 @@
         <v>150611</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -7924,13 +7924,13 @@
         <v>231444</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7945,13 @@
         <v>544968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H23" s="7">
         <v>720</v>
@@ -7960,13 +7960,13 @@
         <v>653592</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M23" s="7">
         <v>1231</v>
@@ -7975,13 +7975,13 @@
         <v>1198561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8052,10 +8052,10 @@
         <v>575</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>576</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -8064,10 +8064,10 @@
         <v>175490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>578</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>579</v>
@@ -8082,10 +8082,10 @@
         <v>580</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>581</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8100,13 @@
         <v>766943</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>585</v>
       </c>
       <c r="H26" s="7">
         <v>826</v>
@@ -8115,13 +8115,13 @@
         <v>692944</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>586</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>1488</v>
@@ -8130,13 +8130,13 @@
         <v>1459887</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,13 +8204,13 @@
         <v>435493</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H28" s="7">
         <v>1196</v>
@@ -8219,13 +8219,13 @@
         <v>733867</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -8234,13 +8234,13 @@
         <v>1169360</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>596</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8255,13 +8255,13 @@
         <v>2946607</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>4165</v>
@@ -8270,25 +8270,25 @@
         <v>3072342</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M29" s="7">
         <v>7050</v>
       </c>
       <c r="N29" s="7">
-        <v>6018948</v>
+        <v>6018949</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>603</v>
+        <v>295</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>604</v>
@@ -8333,7 +8333,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7188308</v>
+        <v>7188309</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD41032A-BF9D-48C3-A772-50950C0EC4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{936F8F3E-A2AE-4C1B-BEBB-07F717C401BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F707AF13-F7DD-40DE-AEB9-A4B7F1993221}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AF5ADEB-3732-421B-AE84-699ACB109694}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>13,47%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>91,36%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>86,53%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1705 +140,1705 @@
     <t>9,29%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>10,78%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>11,63%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
   </si>
   <si>
     <t>80,72%</t>
@@ -2265,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D19EED-F9D7-4A2F-A26B-32A2469E5F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00093A-947E-49E6-A4A0-044D2D7F22A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3027,10 +3027,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3039,13 +3039,13 @@
         <v>38805</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3060,13 @@
         <v>188390</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -3075,13 +3075,13 @@
         <v>183781</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -3090,13 +3090,13 @@
         <v>372171</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3164,13 +3164,13 @@
         <v>22124</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -3179,13 +3179,13 @@
         <v>45795</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -3194,13 +3194,13 @@
         <v>67919</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3215,13 @@
         <v>248687</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>227</v>
@@ -3230,13 +3230,13 @@
         <v>232349</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>470</v>
@@ -3245,13 +3245,13 @@
         <v>481036</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3307,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3319,13 +3319,13 @@
         <v>57078</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -3334,13 +3334,13 @@
         <v>85380</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -3349,13 +3349,13 @@
         <v>142457</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3370,13 @@
         <v>557949</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>535</v>
@@ -3385,13 +3385,13 @@
         <v>552839</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1075</v>
@@ -3400,10 +3400,10 @@
         <v>1110789</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>142</v>
@@ -3510,7 +3510,7 @@
         <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3525,13 @@
         <v>668230</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>628</v>
@@ -3540,13 +3540,13 @@
         <v>655224</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1284</v>
@@ -3555,13 +3555,13 @@
         <v>1323455</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3629,13 @@
         <v>267438</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>474</v>
@@ -3644,13 +3644,13 @@
         <v>493667</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>745</v>
@@ -3659,13 +3659,13 @@
         <v>761106</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,16 +3677,16 @@
         <v>2943</v>
       </c>
       <c r="D29" s="7">
-        <v>3009106</v>
+        <v>3009105</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2823</v>
@@ -3695,13 +3695,13 @@
         <v>2885531</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5766</v>
@@ -3710,13 +3710,13 @@
         <v>5894635</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3728,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B611E1-BBD0-4601-AC19-0AE26E5BD10B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EACF427-8CB9-4DF6-A668-6374DAE1F8FA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3813,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,39 +3918,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,39 +3963,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4057,13 @@
         <v>53692</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -4072,13 +4072,13 @@
         <v>96265</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -4087,13 +4087,13 @@
         <v>149957</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,10 +4108,10 @@
         <v>451835</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>192</v>
@@ -4230,10 +4230,10 @@
         <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4242,10 +4242,10 @@
         <v>96327</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>206</v>
@@ -4284,7 +4284,7 @@
         <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>548</v>
@@ -4293,13 +4293,13 @@
         <v>568739</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,10 +4525,10 @@
         <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4537,13 +4537,13 @@
         <v>58982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4552,13 +4552,13 @@
         <v>83547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4573,13 @@
         <v>188053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -4588,13 +4588,13 @@
         <v>160609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -4603,13 +4603,13 @@
         <v>348662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,7 +4665,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4677,13 +4677,13 @@
         <v>35123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -4692,13 +4692,13 @@
         <v>46720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -4707,13 +4707,13 @@
         <v>81843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4728,13 @@
         <v>238858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>224</v>
@@ -4743,13 +4743,13 @@
         <v>233311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -4758,13 +4758,13 @@
         <v>472169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4820,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4832,13 +4832,13 @@
         <v>47961</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -4847,13 +4847,13 @@
         <v>104693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -4862,13 +4862,13 @@
         <v>152654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4883,13 @@
         <v>613906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>540</v>
@@ -4898,13 +4898,13 @@
         <v>587247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1111</v>
@@ -4913,13 +4913,13 @@
         <v>1201154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,10 +4990,10 @@
         <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -5002,13 +5002,13 @@
         <v>141275</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
@@ -5017,13 +5017,13 @@
         <v>222996</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5038,13 @@
         <v>697376</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -5053,13 +5053,13 @@
         <v>680545</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -5068,13 +5068,13 @@
         <v>1377922</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5142,13 @@
         <v>376521</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>659</v>
@@ -5157,13 +5157,13 @@
         <v>710163</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>1002</v>
@@ -5172,13 +5172,13 @@
         <v>1086684</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,28 +5193,28 @@
         <v>3049337</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>2636</v>
       </c>
       <c r="I29" s="7">
-        <v>2844200</v>
+        <v>2844201</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>5501</v>
@@ -5223,13 +5223,13 @@
         <v>5893538</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,7 +5256,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3554363</v>
+        <v>3554364</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +5309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ECF13F-745D-42E7-8E78-3A6498B583E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF173C-F997-4635-BE75-1AD73DB3DD2B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,7 +5326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5433,13 @@
         <v>30947</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5448,13 +5448,13 @@
         <v>71582</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
@@ -5463,13 +5463,13 @@
         <v>102529</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5484,13 @@
         <v>262814</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -5499,13 +5499,13 @@
         <v>217121</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -5514,13 +5514,13 @@
         <v>479935</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5588,13 @@
         <v>42060</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5603,13 +5603,13 @@
         <v>78214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -5618,13 +5618,13 @@
         <v>120273</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5639,13 @@
         <v>460515</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -5654,7 +5654,7 @@
         <v>444870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>345</v>
@@ -5758,13 +5758,13 @@
         <v>36612</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5773,13 +5773,13 @@
         <v>60271</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5794,13 @@
         <v>294905</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -5809,13 +5809,13 @@
         <v>299697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -5824,13 +5824,13 @@
         <v>594603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5898,13 @@
         <v>61678</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -5913,13 +5913,13 @@
         <v>116480</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5928,13 +5928,13 @@
         <v>178158</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5949,13 @@
         <v>308286</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>256</v>
@@ -5964,13 +5964,13 @@
         <v>270803</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>550</v>
@@ -5979,13 +5979,13 @@
         <v>579089</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6053,13 @@
         <v>16549</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6068,13 +6068,13 @@
         <v>30213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6083,13 +6083,13 @@
         <v>46762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6104,13 @@
         <v>194672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -6119,13 +6119,13 @@
         <v>188374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -6134,13 +6134,13 @@
         <v>383046</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6196,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6208,13 +6208,13 @@
         <v>36532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -6223,13 +6223,13 @@
         <v>57455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -6238,13 +6238,13 @@
         <v>93988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6259,13 @@
         <v>226591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
@@ -6274,13 +6274,13 @@
         <v>215660</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>433</v>
@@ -6289,10 +6289,10 @@
         <v>442250</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>411</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6369,7 +6369,7 @@
         <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -6378,13 +6378,13 @@
         <v>131397</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -6393,13 +6393,13 @@
         <v>187565</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6414,13 @@
         <v>600389</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>534</v>
@@ -6429,13 +6429,13 @@
         <v>559897</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>1063</v>
@@ -6444,13 +6444,13 @@
         <v>1160287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>425</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6518,13 @@
         <v>46258</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6533,13 +6533,13 @@
         <v>105603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>97</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6548,13 +6548,13 @@
         <v>151861</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6569,13 @@
         <v>732325</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -6584,7 +6584,7 @@
         <v>720564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>439</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6840,7 +6840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B91B03E-D363-4738-AFCF-D655E2205754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA859872-B69A-4CE5-AC7F-C83E448BE9B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6970,7 +6970,7 @@
         <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -6982,10 +6982,10 @@
         <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>466</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -7000,7 +7000,7 @@
         <v>468</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7015,13 @@
         <v>238938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>471</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -7030,13 +7030,13 @@
         <v>240201</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>471</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M5" s="7">
         <v>774</v>
@@ -7045,13 +7045,13 @@
         <v>479138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7119,13 @@
         <v>92913</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
@@ -7134,13 +7134,13 @@
         <v>136344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M7" s="7">
         <v>280</v>
@@ -7149,13 +7149,13 @@
         <v>229258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7170,13 @@
         <v>426384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
@@ -7185,13 +7185,13 @@
         <v>418222</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -7200,13 +7200,13 @@
         <v>844606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7274,13 @@
         <v>44054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -7289,13 +7289,13 @@
         <v>66033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -7304,13 +7304,13 @@
         <v>110087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7325,13 @@
         <v>278186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -7340,13 +7340,13 @@
         <v>306580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>332</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>728</v>
@@ -7355,13 +7355,13 @@
         <v>584767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7429,13 @@
         <v>58998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -7444,13 +7444,13 @@
         <v>103768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -7459,13 +7459,13 @@
         <v>162766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7480,13 @@
         <v>262643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H14" s="7">
         <v>420</v>
@@ -7495,13 +7495,13 @@
         <v>324788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -7510,13 +7510,13 @@
         <v>587431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7584,13 @@
         <v>13468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -7599,13 +7599,13 @@
         <v>27768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -7614,13 +7614,13 @@
         <v>41236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,10 +7635,10 @@
         <v>182702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>537</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>538</v>
@@ -7665,13 +7665,13 @@
         <v>385746</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,7 +7727,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7739,13 +7739,13 @@
         <v>31382</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>97</v>
@@ -7754,13 +7754,13 @@
         <v>42650</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>548</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>549</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -7769,13 +7769,13 @@
         <v>74032</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7790,13 @@
         <v>245841</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -7805,13 +7805,13 @@
         <v>232972</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M20" s="7">
         <v>679</v>
@@ -7820,13 +7820,13 @@
         <v>478813</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,7 +7882,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7894,13 +7894,13 @@
         <v>80834</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>240</v>
@@ -7909,13 +7909,13 @@
         <v>150611</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -7924,13 +7924,13 @@
         <v>231444</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7945,13 @@
         <v>544968</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H23" s="7">
         <v>720</v>
@@ -7960,13 +7960,13 @@
         <v>653592</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M23" s="7">
         <v>1231</v>
@@ -7975,13 +7975,13 @@
         <v>1198561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,13 +8049,13 @@
         <v>92485</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -8064,13 +8064,13 @@
         <v>175490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -8079,13 +8079,13 @@
         <v>267975</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8100,13 @@
         <v>766943</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="H26" s="7">
         <v>826</v>
@@ -8115,10 +8115,10 @@
         <v>692944</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>456</v>
@@ -8130,13 +8130,13 @@
         <v>1459887</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,13 +8204,13 @@
         <v>435493</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="H28" s="7">
         <v>1196</v>
@@ -8219,13 +8219,13 @@
         <v>733867</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -8234,13 +8234,13 @@
         <v>1169360</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8255,13 +8255,13 @@
         <v>2946607</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>4165</v>
@@ -8288,7 +8288,7 @@
         <v>603</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>604</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{936F8F3E-A2AE-4C1B-BEBB-07F717C401BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C6254A-ADAA-48C5-A0B1-2409D7732029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AF5ADEB-3732-421B-AE84-699ACB109694}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51F2F74B-6ACA-4E91-BDF2-1C24AA5946E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,1789 +71,1789 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,72%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>84,84%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00093A-947E-49E6-A4A0-044D2D7F22A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1E4FE4-3B00-4CED-8AF2-FB7EEF5AC9B3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3027,10 +3027,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3039,13 +3039,13 @@
         <v>38805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3060,13 @@
         <v>188390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -3075,13 +3075,13 @@
         <v>183781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -3090,13 +3090,13 @@
         <v>372171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3164,13 +3164,13 @@
         <v>22124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -3179,13 +3179,13 @@
         <v>45795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -3194,13 +3194,13 @@
         <v>67919</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3215,13 @@
         <v>248687</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>227</v>
@@ -3230,13 +3230,13 @@
         <v>232349</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>470</v>
@@ -3245,13 +3245,13 @@
         <v>481036</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3307,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3319,13 +3319,13 @@
         <v>57078</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -3334,13 +3334,13 @@
         <v>85380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -3349,13 +3349,13 @@
         <v>142457</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3370,13 @@
         <v>557949</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>535</v>
@@ -3385,13 +3385,13 @@
         <v>552839</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1075</v>
@@ -3400,13 +3400,13 @@
         <v>1110789</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3462,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3474,13 +3474,13 @@
         <v>75565</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>117</v>
@@ -3489,13 +3489,13 @@
         <v>128287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>197</v>
@@ -3504,13 +3504,13 @@
         <v>203851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3525,13 @@
         <v>668230</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>628</v>
@@ -3540,13 +3540,13 @@
         <v>655224</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1284</v>
@@ -3555,13 +3555,13 @@
         <v>1323455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3629,13 @@
         <v>267438</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>474</v>
@@ -3644,13 +3644,13 @@
         <v>493667</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>745</v>
@@ -3659,13 +3659,13 @@
         <v>761106</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,16 +3677,16 @@
         <v>2943</v>
       </c>
       <c r="D29" s="7">
-        <v>3009105</v>
+        <v>3009106</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2823</v>
@@ -3695,28 +3695,28 @@
         <v>2885531</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5766</v>
       </c>
       <c r="N29" s="7">
-        <v>5894635</v>
+        <v>5894634</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3728,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3758,7 +3758,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EACF427-8CB9-4DF6-A668-6374DAE1F8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02458F0D-17AD-430F-9016-BE2299165278}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3813,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,39 +3918,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,39 +3963,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,39 +4008,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4057,13 @@
         <v>53692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -4072,13 +4072,13 @@
         <v>96265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -4087,13 +4087,13 @@
         <v>149957</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4108,13 @@
         <v>451835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>393</v>
@@ -4123,13 +4123,13 @@
         <v>427500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>822</v>
@@ -4138,13 +4138,13 @@
         <v>879335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4212,13 @@
         <v>37764</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4227,13 +4227,13 @@
         <v>58563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4242,13 +4242,13 @@
         <v>96327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4263,13 @@
         <v>286282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>263</v>
@@ -4278,13 +4278,13 @@
         <v>282457</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>548</v>
@@ -4293,13 +4293,13 @@
         <v>568739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4367,13 @@
         <v>95694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -4382,13 +4382,13 @@
         <v>203665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>284</v>
@@ -4397,13 +4397,13 @@
         <v>299359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4418,13 @@
         <v>573026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>434</v>
@@ -4433,13 +4433,13 @@
         <v>472531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>969</v>
@@ -4448,13 +4448,13 @@
         <v>1045557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4522,13 @@
         <v>24565</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4537,13 +4537,13 @@
         <v>58982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4552,13 +4552,13 @@
         <v>83547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4573,13 @@
         <v>188053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -4588,13 +4588,13 @@
         <v>160609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -4603,13 +4603,13 @@
         <v>348662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,7 +4665,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4677,13 +4677,13 @@
         <v>35123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -4692,13 +4692,13 @@
         <v>46720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -4707,13 +4707,13 @@
         <v>81843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4728,13 @@
         <v>238858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>224</v>
@@ -4743,13 +4743,13 @@
         <v>233311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -4758,13 +4758,13 @@
         <v>472169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4820,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4832,13 +4832,13 @@
         <v>47961</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -4847,13 +4847,13 @@
         <v>104693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -4862,13 +4862,13 @@
         <v>152654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4883,13 @@
         <v>613906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>540</v>
@@ -4898,13 +4898,13 @@
         <v>587247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>1111</v>
@@ -4913,13 +4913,13 @@
         <v>1201154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,7 +4975,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4987,13 +4987,13 @@
         <v>81722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -5002,13 +5002,13 @@
         <v>141275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
@@ -5017,13 +5017,13 @@
         <v>222996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5038,13 @@
         <v>697376</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -5053,13 +5053,13 @@
         <v>680545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -5068,13 +5068,13 @@
         <v>1377922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5142,13 @@
         <v>376521</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>659</v>
@@ -5157,13 +5157,13 @@
         <v>710163</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>1002</v>
@@ -5172,13 +5172,13 @@
         <v>1086684</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5193,13 @@
         <v>3049337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>2636</v>
@@ -5208,13 +5208,13 @@
         <v>2844201</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>5501</v>
@@ -5223,13 +5223,13 @@
         <v>5893538</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5285,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +5309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF173C-F997-4635-BE75-1AD73DB3DD2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4EB46-ED26-4C54-8CC5-9FD3E0865F14}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,7 +5326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5433,13 @@
         <v>30947</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5448,13 +5448,13 @@
         <v>71582</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
@@ -5463,13 +5463,13 @@
         <v>102529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5484,13 @@
         <v>262814</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -5499,13 +5499,13 @@
         <v>217121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -5514,13 +5514,13 @@
         <v>479935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5588,13 @@
         <v>42060</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5603,13 +5603,13 @@
         <v>78214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -5618,13 +5618,13 @@
         <v>120273</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5639,13 @@
         <v>460515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -5654,13 +5654,13 @@
         <v>444870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>852</v>
@@ -5669,13 +5669,13 @@
         <v>905386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5743,13 @@
         <v>23660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -5758,13 +5758,13 @@
         <v>36612</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5773,13 +5773,13 @@
         <v>60271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5794,13 @@
         <v>294905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -5809,13 +5809,13 @@
         <v>299697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -5824,13 +5824,13 @@
         <v>594603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5898,13 @@
         <v>61678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -5913,13 +5913,13 @@
         <v>116480</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5928,13 +5928,13 @@
         <v>178158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5949,13 @@
         <v>308286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>256</v>
@@ -5964,13 +5964,13 @@
         <v>270803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>550</v>
@@ -5979,13 +5979,13 @@
         <v>579089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6053,13 @@
         <v>16549</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6068,13 +6068,13 @@
         <v>30213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6083,13 +6083,13 @@
         <v>46762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6104,13 @@
         <v>194672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -6119,13 +6119,13 @@
         <v>188374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -6134,13 +6134,13 @@
         <v>383046</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6196,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6208,13 +6208,13 @@
         <v>36532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -6223,13 +6223,13 @@
         <v>57455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -6238,13 +6238,13 @@
         <v>93988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6259,13 @@
         <v>226591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
@@ -6274,13 +6274,13 @@
         <v>215660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>433</v>
@@ -6289,13 +6289,13 @@
         <v>442250</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,7 +6351,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6363,13 +6363,13 @@
         <v>56169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -6378,13 +6378,13 @@
         <v>131397</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -6393,13 +6393,13 @@
         <v>187565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6414,13 @@
         <v>600389</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>534</v>
@@ -6429,13 +6429,13 @@
         <v>559897</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1063</v>
@@ -6444,13 +6444,13 @@
         <v>1160287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6518,13 +6518,13 @@
         <v>46258</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6533,13 +6533,13 @@
         <v>105603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6548,13 +6548,13 @@
         <v>151861</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6569,13 @@
         <v>732325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -6584,13 +6584,13 @@
         <v>720564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>1374</v>
@@ -6599,13 +6599,13 @@
         <v>1452889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6673,13 @@
         <v>313851</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>540</v>
@@ -6688,13 +6688,13 @@
         <v>627556</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>847</v>
@@ -6703,13 +6703,13 @@
         <v>941407</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6724,13 @@
         <v>3080499</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>2798</v>
@@ -6739,13 +6739,13 @@
         <v>2916986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>5722</v>
@@ -6754,13 +6754,13 @@
         <v>5997485</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6816,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6840,7 +6840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA859872-B69A-4CE5-AC7F-C83E448BE9B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFC0F59-F466-4E9A-A922-E7A2AFC31F0F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,7 +6857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6964,13 +6964,13 @@
         <v>21360</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -6982,10 +6982,10 @@
         <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>473</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -6994,13 +6994,13 @@
         <v>52562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>467</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>469</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7015,13 @@
         <v>238938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -7030,13 +7030,13 @@
         <v>240201</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>478</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>774</v>
@@ -7045,13 +7045,13 @@
         <v>479138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>474</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>475</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7119,13 @@
         <v>92913</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
@@ -7134,13 +7134,13 @@
         <v>136344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>280</v>
@@ -7149,13 +7149,13 @@
         <v>229258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7170,13 @@
         <v>426384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
@@ -7185,13 +7185,13 @@
         <v>418222</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -7200,13 +7200,13 @@
         <v>844606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7274,13 @@
         <v>44054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -7289,13 +7289,13 @@
         <v>66033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>499</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -7304,13 +7304,13 @@
         <v>110087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>501</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7325,13 @@
         <v>278186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -7346,7 +7346,7 @@
         <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>728</v>
@@ -7355,13 +7355,13 @@
         <v>584767</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7429,13 @@
         <v>58998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -7444,13 +7444,13 @@
         <v>103768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
@@ -7459,13 +7459,13 @@
         <v>162766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7480,13 @@
         <v>262643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>420</v>
@@ -7495,28 +7495,28 @@
         <v>324788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
       </c>
       <c r="N14" s="7">
-        <v>587431</v>
+        <v>587432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7558,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750197</v>
+        <v>750198</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7584,13 +7584,13 @@
         <v>13468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -7599,13 +7599,13 @@
         <v>27768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -7614,13 +7614,13 @@
         <v>41236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>530</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7635,13 @@
         <v>182702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
@@ -7650,13 +7650,13 @@
         <v>203043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M17" s="7">
         <v>680</v>
@@ -7665,13 +7665,13 @@
         <v>385746</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>537</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,7 +7727,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7739,13 +7739,13 @@
         <v>31382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H19" s="7">
         <v>97</v>
@@ -7754,13 +7754,13 @@
         <v>42650</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>544</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -7769,13 +7769,13 @@
         <v>74032</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7790,13 @@
         <v>245841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
@@ -7805,13 +7805,13 @@
         <v>232972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>552</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M20" s="7">
         <v>679</v>
@@ -7820,13 +7820,13 @@
         <v>478813</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,7 +7882,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7894,13 +7894,13 @@
         <v>80834</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>240</v>
@@ -7909,13 +7909,13 @@
         <v>150611</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
@@ -7924,10 +7924,10 @@
         <v>231444</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>565</v>
@@ -7975,13 +7975,13 @@
         <v>1198561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8049,13 +8049,13 @@
         <v>92485</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>574</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -8064,13 +8064,13 @@
         <v>175490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>578</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
@@ -8079,13 +8079,13 @@
         <v>267975</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8100,13 @@
         <v>766943</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>583</v>
+        <v>21</v>
       </c>
       <c r="H26" s="7">
         <v>826</v>
@@ -8121,7 +8121,7 @@
         <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>1488</v>
@@ -8130,13 +8130,13 @@
         <v>1459887</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,10 +8207,10 @@
         <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="H28" s="7">
         <v>1196</v>
@@ -8219,13 +8219,13 @@
         <v>733867</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
@@ -8234,13 +8234,13 @@
         <v>1169360</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,7 +8261,7 @@
         <v>598</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>599</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>4165</v>
@@ -8270,25 +8270,25 @@
         <v>3072342</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M29" s="7">
         <v>7050</v>
       </c>
       <c r="N29" s="7">
-        <v>6018949</v>
+        <v>6018948</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>604</v>
@@ -8333,7 +8333,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7188309</v>
+        <v>7188308</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C6254A-ADAA-48C5-A0B1-2409D7732029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE066B8-F5D7-4901-91D7-A03BCDEDCF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51F2F74B-6ACA-4E91-BDF2-1C24AA5946E2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7FA64F3A-F302-47A2-AB9C-108C8276E4A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>10,62%</t>
@@ -698,58 +749,52 @@
     <t>88,37%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>11,55%</t>
@@ -860,9 +905,6 @@
     <t>5,43%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
     <t>12,47%</t>
   </si>
   <si>
@@ -884,9 +926,6 @@
     <t>94,57%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
     <t>82,17%</t>
   </si>
   <si>
@@ -1448,412 +1487,418 @@
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1E4FE4-3B00-4CED-8AF2-FB7EEF5AC9B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11C9A3-3F41-401F-A8DA-6C95B9BB895E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3677,7 +3722,7 @@
         <v>2943</v>
       </c>
       <c r="D29" s="7">
-        <v>3009106</v>
+        <v>3009105</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3692,7 +3737,7 @@
         <v>2823</v>
       </c>
       <c r="I29" s="7">
-        <v>2885531</v>
+        <v>2885530</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -3707,7 +3752,7 @@
         <v>5766</v>
       </c>
       <c r="N29" s="7">
-        <v>5894634</v>
+        <v>5894635</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3728,7 +3773,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3743,7 +3788,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3758,7 +3803,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3796,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02458F0D-17AD-430F-9016-BE2299165278}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FE0E8E-FEFB-4B21-9D1D-B90AC266DE96}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3914,43 +3959,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D4" s="7">
+        <v>39127</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="I4" s="7">
+        <v>78659</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="N4" s="7">
+        <v>117786</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,43 +4010,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>244</v>
+      </c>
+      <c r="D5" s="7">
+        <v>255611</v>
+      </c>
       <c r="E5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="7">
         <v>184</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>208586</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>428</v>
+      </c>
+      <c r="N5" s="7">
+        <v>464197</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,43 +4061,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4120,13 @@
         <v>53692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -4072,13 +4135,13 @@
         <v>96265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -4087,13 +4150,13 @@
         <v>149957</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4171,13 @@
         <v>451835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>393</v>
@@ -4123,13 +4186,13 @@
         <v>427500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>822</v>
@@ -4138,13 +4201,13 @@
         <v>879335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4275,13 @@
         <v>37764</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4227,13 +4290,13 @@
         <v>58563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4242,13 +4305,13 @@
         <v>96327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,10 +4326,10 @@
         <v>286282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>65</v>
@@ -4278,13 +4341,13 @@
         <v>282457</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>548</v>
@@ -4293,13 +4356,13 @@
         <v>568739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,49 +4424,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>95694</v>
+        <v>56567</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="I13" s="7">
-        <v>203665</v>
+        <v>125005</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>284</v>
+        <v>174</v>
       </c>
       <c r="N13" s="7">
-        <v>299359</v>
+        <v>181573</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,49 +4475,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>535</v>
+        <v>291</v>
       </c>
       <c r="D14" s="7">
-        <v>573026</v>
+        <v>317415</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>434</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7">
-        <v>472531</v>
+        <v>263946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>969</v>
+        <v>541</v>
       </c>
       <c r="N14" s="7">
-        <v>1045557</v>
+        <v>581360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4478,10 +4541,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4493,10 +4556,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4522,13 +4585,13 @@
         <v>24565</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4537,13 +4600,13 @@
         <v>58982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4552,13 +4615,13 @@
         <v>83547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4636,13 @@
         <v>188053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -4588,13 +4651,13 @@
         <v>160609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -4603,13 +4666,13 @@
         <v>348662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4740,13 @@
         <v>35123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -4692,13 +4755,13 @@
         <v>46720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -4707,13 +4770,13 @@
         <v>81843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,10 +4791,10 @@
         <v>238858</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>104</v>
@@ -4743,13 +4806,13 @@
         <v>233311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -4758,13 +4821,13 @@
         <v>472169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,10 +4895,10 @@
         <v>47961</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>134</v>
@@ -4847,13 +4910,13 @@
         <v>104693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -4862,13 +4925,13 @@
         <v>152654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,28 +4946,28 @@
         <v>613906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>540</v>
       </c>
       <c r="I23" s="7">
-        <v>587247</v>
+        <v>587248</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>1111</v>
@@ -4913,13 +4976,13 @@
         <v>1201154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +5009,7 @@
         <v>635</v>
       </c>
       <c r="I24" s="7">
-        <v>691940</v>
+        <v>691941</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4987,13 +5050,13 @@
         <v>81722</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -5002,13 +5065,13 @@
         <v>141275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
@@ -5017,13 +5080,13 @@
         <v>222996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5101,13 @@
         <v>697376</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -5053,13 +5116,13 @@
         <v>680545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>1271</v>
@@ -5068,10 +5131,10 @@
         <v>1377922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>180</v>
@@ -5142,13 +5205,13 @@
         <v>376521</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>659</v>
@@ -5157,13 +5220,13 @@
         <v>710163</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>1002</v>
@@ -5172,13 +5235,13 @@
         <v>1086684</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,28 +5256,28 @@
         <v>3049337</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>2636</v>
       </c>
       <c r="I29" s="7">
-        <v>2844201</v>
+        <v>2844200</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>5501</v>
@@ -5223,13 +5286,13 @@
         <v>5893538</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,7 +5319,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3554364</v>
+        <v>3554363</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5309,7 +5372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4EB46-ED26-4C54-8CC5-9FD3E0865F14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E858F1F-E16F-477A-A5C5-47273A8378B2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,7 +5389,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5496,13 @@
         <v>30947</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5448,13 +5511,13 @@
         <v>71582</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
@@ -5463,13 +5526,13 @@
         <v>102529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5547,13 @@
         <v>262814</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -5499,13 +5562,13 @@
         <v>217121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>451</v>
@@ -5514,13 +5577,13 @@
         <v>479935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5651,13 @@
         <v>42060</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5603,13 +5666,13 @@
         <v>78214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -5618,13 +5681,13 @@
         <v>120273</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5702,13 @@
         <v>460515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -5654,13 +5717,13 @@
         <v>444870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>852</v>
@@ -5669,13 +5732,13 @@
         <v>905386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5806,13 @@
         <v>23660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -5761,10 +5824,10 @@
         <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5773,13 +5836,13 @@
         <v>60271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5857,13 @@
         <v>294905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>301</v>
@@ -5812,10 +5875,10 @@
         <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -5824,13 +5887,13 @@
         <v>594603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5961,13 @@
         <v>61678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -5913,13 +5976,13 @@
         <v>116480</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -5928,13 +5991,13 @@
         <v>178158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +6012,13 @@
         <v>308286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>256</v>
@@ -5964,13 +6027,13 @@
         <v>270803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>550</v>
@@ -5979,13 +6042,13 @@
         <v>579089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6116,13 @@
         <v>16549</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6068,13 +6131,13 @@
         <v>30213</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6083,13 +6146,13 @@
         <v>46762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6167,13 @@
         <v>194672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -6119,13 +6182,13 @@
         <v>188374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -6134,13 +6197,13 @@
         <v>383046</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6271,13 @@
         <v>36532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -6223,13 +6286,13 @@
         <v>57455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -6238,13 +6301,13 @@
         <v>93988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6322,13 @@
         <v>226591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
@@ -6274,10 +6337,10 @@
         <v>215660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>120</v>
@@ -6289,13 +6352,13 @@
         <v>442250</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6426,13 @@
         <v>56169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -6378,13 +6441,13 @@
         <v>131397</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -6393,13 +6456,13 @@
         <v>187565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6477,13 @@
         <v>600389</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>534</v>
@@ -6429,10 +6492,10 @@
         <v>559897</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>140</v>
@@ -6444,13 +6507,13 @@
         <v>1160287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6581,13 @@
         <v>46258</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -6533,13 +6596,13 @@
         <v>105603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6548,13 +6611,13 @@
         <v>151861</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6632,13 @@
         <v>732325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -6584,13 +6647,13 @@
         <v>720564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>1374</v>
@@ -6599,13 +6662,13 @@
         <v>1452889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6736,13 @@
         <v>313851</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H28" s="7">
         <v>540</v>
@@ -6688,13 +6751,13 @@
         <v>627556</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
         <v>847</v>
@@ -6703,13 +6766,13 @@
         <v>941407</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6787,13 @@
         <v>3080499</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>2798</v>
@@ -6739,13 +6802,13 @@
         <v>2916986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>5722</v>
@@ -6754,13 +6817,13 @@
         <v>5997485</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFC0F59-F466-4E9A-A922-E7A2AFC31F0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D342C5B3-E087-42A0-8285-EB19908A6AC6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,7 +6920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6961,46 +7024,46 @@
         <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>21360</v>
+        <v>24272</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>31202</v>
+        <v>32456</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
       </c>
       <c r="N4" s="7">
-        <v>52562</v>
+        <v>56728</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,46 +7075,46 @@
         <v>304</v>
       </c>
       <c r="D5" s="7">
-        <v>238938</v>
+        <v>287171</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
       </c>
       <c r="I5" s="7">
-        <v>240201</v>
+        <v>257179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>492</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>774</v>
       </c>
       <c r="N5" s="7">
-        <v>479138</v>
+        <v>544349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,7 +7126,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7078,7 +7141,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7093,7 +7156,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7116,46 +7179,46 @@
         <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>92913</v>
+        <v>88501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
       </c>
       <c r="I7" s="7">
-        <v>136344</v>
+        <v>125597</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="M7" s="7">
         <v>280</v>
       </c>
       <c r="N7" s="7">
-        <v>229258</v>
+        <v>214098</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,46 +7230,46 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>426384</v>
+        <v>429889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
       </c>
       <c r="I8" s="7">
-        <v>418222</v>
+        <v>389372</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
       </c>
       <c r="N8" s="7">
-        <v>844606</v>
+        <v>819261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,7 +7281,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7233,7 +7296,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7248,7 +7311,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7271,46 +7334,46 @@
         <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>44054</v>
+        <v>42193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>514</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>500</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
       </c>
       <c r="I10" s="7">
-        <v>66033</v>
+        <v>61508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>516</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
       </c>
       <c r="N10" s="7">
-        <v>110087</v>
+        <v>103701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,46 +7385,46 @@
         <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>278186</v>
+        <v>273857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
       </c>
       <c r="I11" s="7">
-        <v>306580</v>
+        <v>286986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>508</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>728</v>
       </c>
       <c r="N11" s="7">
-        <v>584767</v>
+        <v>560844</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>523</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,7 +7436,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7388,7 +7451,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372613</v>
+        <v>348494</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7403,7 +7466,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694854</v>
+        <v>664545</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7426,46 +7489,46 @@
         <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>58998</v>
+        <v>55976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
       </c>
       <c r="I13" s="7">
-        <v>103768</v>
+        <v>95666</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>239</v>
       </c>
       <c r="N13" s="7">
-        <v>162766</v>
+        <v>151642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,46 +7540,46 @@
         <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>262643</v>
+        <v>256010</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>535</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>420</v>
       </c>
       <c r="I14" s="7">
-        <v>324788</v>
+        <v>380052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
       </c>
       <c r="N14" s="7">
-        <v>587432</v>
+        <v>636062</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +7591,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321641</v>
+        <v>311986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7543,7 +7606,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7558,7 +7621,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750198</v>
+        <v>787704</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7581,46 +7644,46 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>13468</v>
+        <v>12282</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>27768</v>
+        <v>25124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
       </c>
       <c r="N16" s="7">
-        <v>41236</v>
+        <v>37406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,46 +7695,46 @@
         <v>257</v>
       </c>
       <c r="D17" s="7">
-        <v>182702</v>
+        <v>165957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>423</v>
       </c>
       <c r="I17" s="7">
-        <v>203043</v>
+        <v>182558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>534</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>680</v>
       </c>
       <c r="N17" s="7">
-        <v>385746</v>
+        <v>348515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>556</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,7 +7746,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196170</v>
+        <v>178239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7698,7 +7761,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>230811</v>
+        <v>207682</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7713,7 +7776,7 @@
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>426982</v>
+        <v>385921</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7736,46 +7799,46 @@
         <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>31382</v>
+        <v>29907</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="H19" s="7">
         <v>97</v>
       </c>
       <c r="I19" s="7">
-        <v>42650</v>
+        <v>39821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
       </c>
       <c r="N19" s="7">
-        <v>74032</v>
+        <v>69728</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,46 +7850,46 @@
         <v>316</v>
       </c>
       <c r="D20" s="7">
-        <v>245841</v>
+        <v>239729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>363</v>
       </c>
       <c r="I20" s="7">
-        <v>232972</v>
+        <v>217235</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>679</v>
       </c>
       <c r="N20" s="7">
-        <v>478813</v>
+        <v>456964</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,7 +7901,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7853,7 +7916,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7868,7 +7931,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7891,46 +7954,46 @@
         <v>86</v>
       </c>
       <c r="D22" s="7">
-        <v>80834</v>
+        <v>77458</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="H22" s="7">
         <v>240</v>
       </c>
       <c r="I22" s="7">
-        <v>150611</v>
+        <v>138579</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>467</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>326</v>
       </c>
       <c r="N22" s="7">
-        <v>231444</v>
+        <v>216037</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,46 +8005,46 @@
         <v>511</v>
       </c>
       <c r="D23" s="7">
-        <v>544968</v>
+        <v>544951</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="H23" s="7">
         <v>720</v>
       </c>
       <c r="I23" s="7">
-        <v>653592</v>
+        <v>710686</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1231</v>
       </c>
       <c r="N23" s="7">
-        <v>1198561</v>
+        <v>1255637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,7 +8056,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>625802</v>
+        <v>622409</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8008,7 +8071,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8023,7 +8086,7 @@
         <v>1557</v>
       </c>
       <c r="N24" s="7">
-        <v>1430005</v>
+        <v>1471674</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8046,46 +8109,46 @@
         <v>100</v>
       </c>
       <c r="D25" s="7">
-        <v>92485</v>
+        <v>78915</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>587</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
       </c>
       <c r="I25" s="7">
-        <v>175490</v>
+        <v>144776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="M25" s="7">
         <v>336</v>
       </c>
       <c r="N25" s="7">
-        <v>267975</v>
+        <v>223691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>593</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,46 +8160,46 @@
         <v>662</v>
       </c>
       <c r="D26" s="7">
-        <v>766943</v>
+        <v>849805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>597</v>
       </c>
       <c r="H26" s="7">
         <v>826</v>
       </c>
       <c r="I26" s="7">
-        <v>692944</v>
+        <v>572955</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="M26" s="7">
         <v>1488</v>
       </c>
       <c r="N26" s="7">
-        <v>1459887</v>
+        <v>1422761</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,7 +8211,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8163,7 +8226,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8178,7 +8241,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8201,46 +8264,46 @@
         <v>487</v>
       </c>
       <c r="D28" s="7">
-        <v>435493</v>
+        <v>409505</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>605</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="H28" s="7">
         <v>1196</v>
       </c>
       <c r="I28" s="7">
-        <v>733867</v>
+        <v>663528</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="M28" s="7">
         <v>1683</v>
       </c>
       <c r="N28" s="7">
-        <v>1169360</v>
+        <v>1073033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>595</v>
+        <v>223</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,46 +8315,46 @@
         <v>2885</v>
       </c>
       <c r="D29" s="7">
-        <v>2946607</v>
+        <v>3047368</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>4165</v>
       </c>
       <c r="I29" s="7">
-        <v>3072342</v>
+        <v>2997022</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="M29" s="7">
         <v>7050</v>
       </c>
       <c r="N29" s="7">
-        <v>6018948</v>
+        <v>6044390</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>604</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,7 +8366,7 @@
         <v>3372</v>
       </c>
       <c r="D30" s="7">
-        <v>3382100</v>
+        <v>3456873</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8318,7 +8381,7 @@
         <v>5361</v>
       </c>
       <c r="I30" s="7">
-        <v>3806209</v>
+        <v>3660550</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8333,7 +8396,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7188308</v>
+        <v>7117423</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
